--- a/data/trans_orig/P37AS2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37AS2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8F85567-BDF7-4C14-A374-218D765C8DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C98F9FF7-2722-4B9F-BBB8-FBD636279D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{47103AE9-91B6-4D84-B5D7-E1036C4DF35C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5E5EAA7-E700-49FE-8359-CA494BFF3320}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="77">
   <si>
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -94,13 +94,13 @@
     <t>17,4%</t>
   </si>
   <si>
-    <t>66,68%</t>
+    <t>72,1%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>60,71%</t>
+    <t>57,78%</t>
   </si>
   <si>
     <t>El médico, por mis enfermedades</t>
@@ -109,10 +109,10 @@
     <t>47,88%</t>
   </si>
   <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -127,10 +127,10 @@
     <t>56,55%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>El médico, por mi edad</t>
@@ -139,13 +139,13 @@
     <t>34,72%</t>
   </si>
   <si>
-    <t>83,28%</t>
+    <t>70,12%</t>
   </si>
   <si>
     <t>28,94%</t>
   </si>
   <si>
-    <t>72,62%</t>
+    <t>71,22%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -166,22 +166,22 @@
     <t>14,56%</t>
   </si>
   <si>
-    <t>65,38%</t>
+    <t>58,55%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>46,14%</t>
+    <t>45,54%</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -190,19 +190,22 @@
     <t>66,91%</t>
   </si>
   <si>
-    <t>33,93%</t>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
-    <t>72,79%</t>
+    <t>72,64%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>56,28%</t>
+    <t>56,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -677,7 +680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9502FA-EE99-4129-8388-6F2D1EE14CA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37197831-9792-43EC-8279-06037F1405D7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1690,7 +1693,7 @@
         <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1705,13 +1708,13 @@
         <v>1883</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1735,13 +1738,13 @@
         <v>1883</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1797,7 +1800,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +1819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB28BB8E-FD0C-4E87-8CDB-9998065FB0CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9233B59-8288-4638-969E-E4FA55794F88}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1833,7 +1836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1976,7 +1979,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,7 +2030,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,7 +2048,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>27</v>
@@ -2075,7 +2078,7 @@
         <v>25</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>27</v>
@@ -2129,7 +2132,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,7 +2690,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,7 +2741,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,7 +2759,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>27</v>
@@ -2786,7 +2789,7 @@
         <v>25</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>27</v>
@@ -2840,7 +2843,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,7 +2899,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2915,7 +2918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B24881E-CE00-43B3-9999-16D8FC8E7F62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9FC5F3-F8B3-454D-B0A7-B694CD45625C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2932,7 +2935,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3045,7 +3048,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3069,13 +3072,13 @@
         <v>1046</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,7 +3099,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3126,7 +3129,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3147,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>27</v>
@@ -3171,10 +3174,10 @@
         <v>2731</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>25</v>
@@ -3198,7 +3201,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3228,7 +3231,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,7 +3793,7 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
@@ -3820,13 +3823,13 @@
         <v>2981</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,7 +3850,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3892,7 +3895,7 @@
         <v>2731</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
@@ -3922,13 +3925,13 @@
         <v>2731</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,7 +3952,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4035,7 +4038,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37AS2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37AS2-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C98F9FF7-2722-4B9F-BBB8-FBD636279D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D44666C-1C14-403E-ACA6-BE50608B026E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5E5EAA7-E700-49FE-8359-CA494BFF3320}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9BC5C5CF-9FE9-4E06-9CF0-BFD6F02C4AB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="76">
   <si>
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -94,13 +94,13 @@
     <t>17,4%</t>
   </si>
   <si>
-    <t>72,1%</t>
+    <t>69,62%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>57,78%</t>
+    <t>66,52%</t>
   </si>
   <si>
     <t>El médico, por mis enfermedades</t>
@@ -109,10 +109,10 @@
     <t>47,88%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -127,10 +127,10 @@
     <t>56,55%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>El médico, por mi edad</t>
@@ -139,13 +139,13 @@
     <t>34,72%</t>
   </si>
   <si>
-    <t>70,12%</t>
+    <t>83,33%</t>
   </si>
   <si>
     <t>28,94%</t>
   </si>
   <si>
-    <t>71,22%</t>
+    <t>72,59%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -166,22 +166,22 @@
     <t>14,56%</t>
   </si>
   <si>
-    <t>58,55%</t>
+    <t>66,09%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>45,54%</t>
+    <t>45,89%</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -190,22 +190,19 @@
     <t>66,91%</t>
   </si>
   <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
-    <t>72,64%</t>
-  </si>
-  <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>56,96%</t>
+    <t>56,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -223,7 +220,7 @@
     <t>79,25%</t>
   </si>
   <si>
-    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2015 (Tasa respuesta: 0,09%)</t>
+    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2016 (Tasa respuesta: 0,09%)</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -253,7 +250,7 @@
     <t>52,19%</t>
   </si>
   <si>
-    <t>16,0%</t>
+    <t>15,92%</t>
   </si>
   <si>
     <t>84,98%</t>
@@ -268,7 +265,7 @@
     <t>15,02%</t>
   </si>
   <si>
-    <t>84,0%</t>
+    <t>84,08%</t>
   </si>
 </sst>
 </file>
@@ -680,7 +677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37197831-9792-43EC-8279-06037F1405D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C8930A-D861-4879-8379-3B052531B0CB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1714,7 +1711,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1738,13 +1735,13 @@
         <v>1883</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,7 +1797,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9233B59-8288-4638-969E-E4FA55794F88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6BC2F2-4643-4F3E-9DAD-41B77C916DEB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1836,7 +1833,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1979,7 +1976,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,7 +2027,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2048,7 +2045,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>27</v>
@@ -2078,7 +2075,7 @@
         <v>25</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>27</v>
@@ -2132,7 +2129,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,7 +2738,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2756,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>27</v>
@@ -2789,7 +2786,7 @@
         <v>25</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>27</v>
@@ -2843,7 +2840,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,7 +2896,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2918,7 +2915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9FC5F3-F8B3-454D-B0A7-B694CD45625C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A222CB2-4815-4310-BC65-D5C74BF3691B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2935,7 +2932,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3048,7 +3045,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3072,13 +3069,13 @@
         <v>1046</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,7 +3096,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3129,7 +3126,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,7 +3144,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>27</v>
@@ -3174,10 +3171,10 @@
         <v>2731</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>25</v>
@@ -3201,7 +3198,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3231,7 +3228,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,7 +3790,7 @@
         <v>1054</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
@@ -3823,13 +3820,13 @@
         <v>2981</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,7 +3847,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3895,7 +3892,7 @@
         <v>2731</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
@@ -3925,13 +3922,13 @@
         <v>2731</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,7 +3949,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4038,7 +4035,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37AS2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37AS2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D44666C-1C14-403E-ACA6-BE50608B026E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CAC6AA5-A47E-49DC-A86C-96AB03498B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9BC5C5CF-9FE9-4E06-9CF0-BFD6F02C4AB3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{62755A4F-AC9C-461A-AEF0-3D557E4DC385}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -94,13 +94,13 @@
     <t>17,4%</t>
   </si>
   <si>
-    <t>69,62%</t>
+    <t>66,68%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>66,52%</t>
+    <t>60,71%</t>
   </si>
   <si>
     <t>El médico, por mis enfermedades</t>
@@ -109,10 +109,10 @@
     <t>47,88%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -127,10 +127,10 @@
     <t>56,55%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
   </si>
   <si>
     <t>El médico, por mi edad</t>
@@ -139,13 +139,13 @@
     <t>34,72%</t>
   </si>
   <si>
-    <t>83,33%</t>
+    <t>83,28%</t>
   </si>
   <si>
     <t>28,94%</t>
   </si>
   <si>
-    <t>72,59%</t>
+    <t>72,62%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -166,22 +166,22 @@
     <t>14,56%</t>
   </si>
   <si>
-    <t>66,09%</t>
+    <t>65,38%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>45,89%</t>
+    <t>46,14%</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -190,19 +190,19 @@
     <t>66,91%</t>
   </si>
   <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>33,93%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
+    <t>72,79%</t>
+  </si>
+  <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>56,71%</t>
+    <t>56,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -250,7 +250,7 @@
     <t>52,19%</t>
   </si>
   <si>
-    <t>15,92%</t>
+    <t>16,0%</t>
   </si>
   <si>
     <t>84,98%</t>
@@ -265,7 +265,7 @@
     <t>15,02%</t>
   </si>
   <si>
-    <t>84,08%</t>
+    <t>84,0%</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C8930A-D861-4879-8379-3B052531B0CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB92F0D-72E8-4A97-BA3D-D71DB6AF17A0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1690,7 +1690,7 @@
         <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1705,13 +1705,13 @@
         <v>1883</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1816,7 +1816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6BC2F2-4643-4F3E-9DAD-41B77C916DEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A83E43E-84A7-4E7A-A219-3D9201217643}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2915,7 +2915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A222CB2-4815-4310-BC65-D5C74BF3691B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BB7170-1DBA-41D9-96A1-9757F77290FF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P37AS2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37AS2-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CAC6AA5-A47E-49DC-A86C-96AB03498B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EACB3A79-0685-4847-A306-424D46BC3FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{62755A4F-AC9C-461A-AEF0-3D557E4DC385}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C8753A6F-D76B-4D54-87D3-40D486E35E87}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -677,7 +677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB92F0D-72E8-4A97-BA3D-D71DB6AF17A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F512750-F899-4759-900E-41CC3C955821}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1816,7 +1816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A83E43E-84A7-4E7A-A219-3D9201217643}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577122EB-6201-4E47-A943-F7751C2E085B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2915,7 +2915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BB7170-1DBA-41D9-96A1-9757F77290FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4994F9-A257-4D24-9D28-6662678E0BB5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
